--- a/mapping/mml4_referral_mapping.xlsx
+++ b/mapping/mml4_referral_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="599">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -1734,12 +1734,527 @@
     <t>/content[openEHR-EHR-EVALUATION.citation.v1 and name/value='Remarks extention']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>mmlPs:PrescriptionModule</t>
+  </si>
+  <si>
+    <t>mmlPs:issuedTo</t>
+  </si>
+  <si>
+    <t>issued to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:medication</t>
+  </si>
+  <si>
+    <t>mmlPs:medicine</t>
+  </si>
+  <si>
+    <t>mmlPs:name</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:code</t>
+  </si>
+  <si>
+    <t>mmlPs:system</t>
+  </si>
+  <si>
+    <t>値は常に"="</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:dose</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:doseUnit</t>
+  </si>
+  <si>
+    <t>mmPs:frequencyPerDay</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmPs:startDate</t>
+  </si>
+  <si>
+    <t>Start date/time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmPs:duration</t>
+  </si>
+  <si>
+    <t>Direction duration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DURATION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:instruction</t>
+  </si>
+  <si>
+    <t>Patient instruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:PRN</t>
+  </si>
+  <si>
+    <t>As requied</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_BOOLEAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:route</t>
+  </si>
+  <si>
+    <t>Route</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:form</t>
+  </si>
+  <si>
+    <t>Preparation form</t>
+  </si>
+  <si>
+    <t>mmlPs:batchNo</t>
+  </si>
+  <si>
+    <t>Direction sequence</t>
+  </si>
+  <si>
+    <t>DV_COUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:brandSubstitutionPermitted</t>
+  </si>
+  <si>
+    <t>substitution permitted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:longTerm</t>
+  </si>
+  <si>
+    <t>long term</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:additionalInstruction</t>
+  </si>
+  <si>
+    <t>Additional instruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlPs:narcoticPrescriptionLicenseNumber</t>
+  </si>
+  <si>
+    <t>narcotic prescription license number</t>
+  </si>
+  <si>
+    <t>1.13.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.2.14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0070]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0070]/mappings/target/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0070]/mappings/target/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0070]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[at0144]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[at0144]/units</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[openEHR-EHR-CLUSTER.daily_timing.v0]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0113]/items[at0012]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0056]/items[at0066]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0105]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[openEHR-EHR-CLUSTER.daily_timing.v0]/items[at0024]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0091]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[openEHR-EHR-CLUSTER.medication_preparation.v0]/items[at0071]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0056]/items[at0057]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0129]/items[at0132]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Prescription']/activities[at0001]/description[at0002]/items[at0044]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlInj:InjectionModule</t>
+  </si>
+  <si>
+    <t>mmlInj:medication</t>
+  </si>
+  <si>
+    <t>mmlInj:medicine</t>
+  </si>
+  <si>
+    <t>mmlInj:name</t>
+  </si>
+  <si>
+    <t>Medication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlInj:code</t>
+  </si>
+  <si>
+    <t>mmlInj:system</t>
+  </si>
+  <si>
+    <t>mmlInj:dose</t>
+  </si>
+  <si>
+    <t>mmlInj:doseUnit</t>
+  </si>
+  <si>
+    <t>mmInj:startDateTime</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>Order start date/time</t>
+  </si>
+  <si>
+    <t>mmInj:endDateTime</t>
+  </si>
+  <si>
+    <t>Order stop date/time</t>
+  </si>
+  <si>
+    <t>mmlInj:instruction</t>
+  </si>
+  <si>
+    <t>Administration instruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlInj:route</t>
+  </si>
+  <si>
+    <t>mmlInj:site</t>
+  </si>
+  <si>
+    <t>Site</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlInj:deliveryMethod</t>
+  </si>
+  <si>
+    <t>Delivery method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlInj:batchNo</t>
+  </si>
+  <si>
+    <t>mmlInj:additionalInstruction</t>
+  </si>
+  <si>
+    <t>mmlInj:narcoticPrescriptionLicenseNumber</t>
+  </si>
+  <si>
+    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.prescription_condition.v0]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlInj:comment</t>
+  </si>
+  <si>
+    <t>Dose directions description</t>
+  </si>
+  <si>
+    <t>1.13.2.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.1.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.13.2.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0070]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0070]/mappings/target/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0070]/mappings/target/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0070]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[at0144]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0056]/items[at0058]/items[at0144]/units</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0113]/items[at0012]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0113]/items[at0013]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0133]/items[at0108]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0091]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0133]/items[at0092]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0133]/items[at0094]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0056]/items[at0057]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0044]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0009]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1767,6 +2282,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1849,7 +2373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1939,6 +2463,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2241,10 +2789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L261"/>
+  <dimension ref="A1:L302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D158" workbookViewId="0">
-      <selection activeCell="K173" sqref="K173"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:XFD202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5715,957 +6263,1001 @@
       </c>
       <c r="L160" s="7"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A161" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="3"/>
-      <c r="H161" t="s">
-        <v>216</v>
-      </c>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
+    <row r="161" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A161" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="I161"/>
+      <c r="J161"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162" s="3"/>
-      <c r="I162" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="J162" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="K162" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="L162" s="7"/>
+    <row r="162" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="B162" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="33"/>
+      <c r="I162" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="3"/>
-      <c r="I163" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="J163" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="K163" s="7" t="s">
-        <v>453</v>
-      </c>
+      <c r="A163" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="31"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163" s="7"/>
       <c r="L163" s="7"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="3"/>
-      <c r="I164" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="J164" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="K164" s="7" t="s">
-        <v>454</v>
-      </c>
+      <c r="A164" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164" s="7"/>
       <c r="L164" s="7"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E165" s="3" t="s">
+      <c r="A165" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+      <c r="I165" t="s">
+        <v>467</v>
+      </c>
+      <c r="J165" t="s">
+        <v>463</v>
+      </c>
+      <c r="K165" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L165" s="7"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A166" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="31"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L166" s="7"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A167" s="30"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="D167" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F165" s="3"/>
-      <c r="I165" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="J165" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="K165" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L165" s="7"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A166" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="H166" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I166" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="J166" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K166" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L166" s="7"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A167" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F167" s="3"/>
-      <c r="H167" t="s">
-        <v>214</v>
-      </c>
-      <c r="I167" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="J167" s="12" t="s">
-        <v>305</v>
-      </c>
+      <c r="F167" s="31"/>
+      <c r="I167"/>
+      <c r="J167"/>
       <c r="K167" s="7" t="s">
-        <v>304</v>
+        <v>526</v>
       </c>
       <c r="L167" s="7"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A168" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B168" s="3" t="s">
+      <c r="A168" s="30"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
+      <c r="I168"/>
+      <c r="J168" t="s">
+        <v>470</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L168" s="7"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A169" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+      <c r="I169" t="s">
+        <v>473</v>
+      </c>
+      <c r="J169" t="s">
+        <v>474</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L169" s="7"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A170" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="B170" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L170" s="7"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A171" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="I171" t="s">
+        <v>477</v>
+      </c>
+      <c r="J171" t="s">
+        <v>474</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L171" s="7"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A172" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="B172" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" s="31"/>
+      <c r="I172" t="s">
+        <v>479</v>
+      </c>
+      <c r="J172" t="s">
+        <v>480</v>
+      </c>
+      <c r="K172" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L172" s="7"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A173" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="B173" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E173" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="31"/>
+      <c r="I173" t="s">
+        <v>482</v>
+      </c>
+      <c r="J173" t="s">
+        <v>483</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L173" s="7"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A174" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="B174" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="31"/>
+      <c r="I174" t="s">
+        <v>485</v>
+      </c>
+      <c r="J174" t="s">
+        <v>463</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L174" s="7"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A175" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="B175" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E175" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="31"/>
+      <c r="I175" t="s">
+        <v>487</v>
+      </c>
+      <c r="J175" t="s">
+        <v>488</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L175" s="7"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A176" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="B176" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="31"/>
+      <c r="I176" t="s">
+        <v>490</v>
+      </c>
+      <c r="J176" t="s">
+        <v>463</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L176" s="7"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A177" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="B177" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="31"/>
+      <c r="I177" t="s">
+        <v>492</v>
+      </c>
+      <c r="J177" t="s">
+        <v>463</v>
+      </c>
+      <c r="K177" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L177" s="7"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A178" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" s="31"/>
+      <c r="I178" t="s">
+        <v>494</v>
+      </c>
+      <c r="J178" t="s">
+        <v>495</v>
+      </c>
+      <c r="K178" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="L178" s="7"/>
+    </row>
+    <row r="179" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A179" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E179" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" s="31"/>
+      <c r="I179" t="s">
+        <v>497</v>
+      </c>
+      <c r="J179" t="s">
+        <v>488</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L179" s="7"/>
+    </row>
+    <row r="180" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="B180" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E180" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="33"/>
+      <c r="I180" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="J180" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A181" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="31"/>
+      <c r="I181" t="s">
+        <v>501</v>
+      </c>
+      <c r="J181" t="s">
+        <v>463</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L181" s="7"/>
+    </row>
+    <row r="182" spans="1:12" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A182" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="B182" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" s="33"/>
+      <c r="G182" s="34"/>
+      <c r="H182" s="34"/>
+      <c r="I182" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="J182" s="35" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A183" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="L183" s="7"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A184" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="31"/>
+      <c r="I184"/>
+      <c r="J184"/>
+      <c r="L184" s="7"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A185" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="B185" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
+      <c r="I185"/>
+      <c r="J185"/>
+      <c r="L185" s="7"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A186" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="B186" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
+      <c r="I186" t="s">
+        <v>544</v>
+      </c>
+      <c r="J186" t="s">
+        <v>463</v>
+      </c>
+      <c r="K186" t="s">
+        <v>584</v>
+      </c>
+      <c r="L186" s="7"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A187" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="31"/>
+      <c r="I187"/>
+      <c r="J187"/>
+      <c r="K187" t="s">
+        <v>585</v>
+      </c>
+      <c r="L187" s="7"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A188" s="36"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="D188" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
+      <c r="I188"/>
+      <c r="J188"/>
+      <c r="K188" t="s">
+        <v>586</v>
+      </c>
+      <c r="L188" s="7"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A189" s="36"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31"/>
+      <c r="F189" s="31"/>
+      <c r="I189"/>
+      <c r="J189" t="s">
+        <v>470</v>
+      </c>
+      <c r="K189" t="s">
+        <v>587</v>
+      </c>
+      <c r="L189" s="7"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A190" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E190" s="31"/>
+      <c r="F190" s="31"/>
+      <c r="I190" t="s">
+        <v>473</v>
+      </c>
+      <c r="J190" t="s">
+        <v>474</v>
+      </c>
+      <c r="K190" t="s">
+        <v>588</v>
+      </c>
+      <c r="L190" s="7"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A191" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
+      <c r="I191"/>
+      <c r="J191"/>
+      <c r="K191" t="s">
+        <v>589</v>
+      </c>
+      <c r="L191" s="7"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A192" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="B192" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" s="31"/>
+      <c r="I192" t="s">
+        <v>551</v>
+      </c>
+      <c r="J192" t="s">
+        <v>480</v>
+      </c>
+      <c r="K192" t="s">
+        <v>590</v>
+      </c>
+      <c r="L192" s="7"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A193" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="C193" s="31"/>
+      <c r="D193" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="E193" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" s="31"/>
+      <c r="I193" t="s">
+        <v>553</v>
+      </c>
+      <c r="J193" t="s">
+        <v>480</v>
+      </c>
+      <c r="K193" t="s">
+        <v>591</v>
+      </c>
+      <c r="L193" s="7"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A194" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="C194" s="31"/>
+      <c r="D194" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" s="31"/>
+      <c r="I194" t="s">
+        <v>555</v>
+      </c>
+      <c r="J194" t="s">
+        <v>463</v>
+      </c>
+      <c r="K194" t="s">
+        <v>592</v>
+      </c>
+      <c r="L194" s="7"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A195" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="B195" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="C195" s="31"/>
+      <c r="D195" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" s="31"/>
+      <c r="I195" t="s">
+        <v>490</v>
+      </c>
+      <c r="J195" t="s">
+        <v>463</v>
+      </c>
+      <c r="K195" t="s">
+        <v>593</v>
+      </c>
+      <c r="L195" s="7"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A196" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="B196" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="C196" s="31"/>
+      <c r="D196" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196" s="31"/>
+      <c r="I196" t="s">
+        <v>558</v>
+      </c>
+      <c r="J196" t="s">
+        <v>463</v>
+      </c>
+      <c r="K196" t="s">
+        <v>594</v>
+      </c>
+      <c r="L196" s="7"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A197" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="B197" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="C197" s="31"/>
+      <c r="D197" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" s="31"/>
+      <c r="I197" t="s">
+        <v>560</v>
+      </c>
+      <c r="J197" t="s">
+        <v>463</v>
+      </c>
+      <c r="K197" t="s">
+        <v>595</v>
+      </c>
+      <c r="L197" s="7"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A198" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="C198" s="31"/>
+      <c r="D198" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="E198" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" s="31"/>
+      <c r="I198" t="s">
+        <v>494</v>
+      </c>
+      <c r="J198" t="s">
+        <v>495</v>
+      </c>
+      <c r="K198" t="s">
+        <v>596</v>
+      </c>
+      <c r="L198" s="7"/>
+    </row>
+    <row r="199" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A199" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="B199" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="C199" s="31"/>
+      <c r="D199" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="31"/>
+      <c r="I199" t="s">
+        <v>501</v>
+      </c>
+      <c r="J199" t="s">
+        <v>463</v>
+      </c>
+      <c r="K199" t="s">
+        <v>597</v>
+      </c>
+      <c r="L199" s="7"/>
+    </row>
+    <row r="200" spans="1:12" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A200" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="B200" s="33" t="s">
+        <v>563</v>
+      </c>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200" s="33"/>
+      <c r="I200" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="J200" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="K200" s="9" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A201" s="36" t="s">
+        <v>583</v>
+      </c>
+      <c r="B201" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="31"/>
+      <c r="I201" t="s">
+        <v>566</v>
+      </c>
+      <c r="J201" t="s">
+        <v>463</v>
+      </c>
+      <c r="K201" t="s">
+        <v>598</v>
+      </c>
+      <c r="L201" s="7"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A202" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" s="3"/>
-      <c r="H168" t="s">
-        <v>216</v>
-      </c>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
-      <c r="K168" s="7"/>
-      <c r="L168" s="7"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169" s="3"/>
-      <c r="I169" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="J169" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="K169" s="27" t="s">
-        <v>456</v>
-      </c>
-      <c r="L169" s="7"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170" s="3"/>
-      <c r="I170" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="J170" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="K170" s="27" t="s">
-        <v>457</v>
-      </c>
-      <c r="L170" s="7"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F171" s="3"/>
-      <c r="I171" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="J171" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="K171" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="L171" s="7"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F172" s="3"/>
-      <c r="I172" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="J172" s="29" t="s">
-        <v>438</v>
-      </c>
-      <c r="K172" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="L172" s="7"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A173" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="I173" s="12"/>
-      <c r="J173" s="12"/>
-      <c r="K173" s="7"/>
-      <c r="L173" s="7"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A174" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="H174" t="s">
-        <v>183</v>
-      </c>
-      <c r="L174" s="7"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F175" s="3"/>
-      <c r="I175" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="J175" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K175" t="s">
-        <v>306</v>
-      </c>
-      <c r="L175" s="7"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I176" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J176" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="K176" t="s">
-        <v>307</v>
-      </c>
-      <c r="L176" s="7"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="3"/>
-      <c r="I177" s="18"/>
-      <c r="J177" s="18"/>
-      <c r="K177" t="s">
-        <v>308</v>
-      </c>
-      <c r="L177" s="7"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F178" s="3"/>
-      <c r="I178" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J178" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="K178" t="s">
-        <v>309</v>
-      </c>
-      <c r="L178" s="7"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A179" s="3"/>
-      <c r="C179" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I179" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="J179" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K179" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="L179" s="7"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A180" s="3"/>
-      <c r="C180" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F180" s="3"/>
-      <c r="K180" t="s">
-        <v>377</v>
-      </c>
-      <c r="L180" s="7"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="H181" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K181" t="s">
-        <v>378</v>
-      </c>
-      <c r="L181" s="7"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A182" s="3"/>
-      <c r="C182" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F182" s="3"/>
-      <c r="I182" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J182" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="K182" t="s">
-        <v>315</v>
-      </c>
-      <c r="L182" s="7"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A183" s="3"/>
-      <c r="C183" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I183" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="J183" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K183" t="s">
-        <v>316</v>
-      </c>
-      <c r="L183" s="7"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A184" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="H184" t="s">
-        <v>25</v>
-      </c>
-      <c r="L184" s="7"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" s="3"/>
-      <c r="I185" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="J185" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K185" t="s">
-        <v>310</v>
-      </c>
-      <c r="L185" s="7"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I186" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J186" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="K186" t="s">
-        <v>312</v>
-      </c>
-      <c r="L186" s="7"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F187" s="3"/>
-      <c r="I187" s="18"/>
-      <c r="J187" s="18"/>
-      <c r="K187" t="s">
-        <v>311</v>
-      </c>
-      <c r="L187" s="7"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F188" s="3"/>
-      <c r="I188" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J188" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="K188" t="s">
-        <v>314</v>
-      </c>
-      <c r="L188" s="7"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A189" s="3"/>
-      <c r="C189" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I189" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="J189" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="K189" t="s">
-        <v>326</v>
-      </c>
-      <c r="L189" s="7"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A190" s="3"/>
-      <c r="C190" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F190" s="3"/>
-      <c r="K190" t="s">
-        <v>379</v>
-      </c>
-      <c r="L190" s="7"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="H191" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K191" t="s">
-        <v>380</v>
-      </c>
-      <c r="L191" s="7"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A192" s="3"/>
-      <c r="C192" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="3"/>
-      <c r="I192" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J192" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="K192" t="s">
-        <v>318</v>
-      </c>
-      <c r="L192" s="7"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A193" s="3"/>
-      <c r="C193" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I193" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="J193" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K193" t="s">
-        <v>325</v>
-      </c>
-      <c r="L193" s="7"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A194" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" s="3"/>
-      <c r="H194" s="7"/>
-      <c r="I194" s="12"/>
-      <c r="J194" s="12"/>
-      <c r="K194" s="7"/>
-      <c r="L194" s="7"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A195" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="H195" t="s">
-        <v>319</v>
-      </c>
-      <c r="K195" s="7"/>
-      <c r="L195" s="7"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="I196" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="J196" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="K196" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L196" s="7"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F197" s="3"/>
-      <c r="I197" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="J197" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="K197" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L197" s="7"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F198" s="3"/>
-      <c r="K198" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L198" s="7"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="H199" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K199" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L199" s="7"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F200" s="3"/>
-      <c r="I200" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J200" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="K200" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L200" s="7"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F201" s="3"/>
-      <c r="I201" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="J201" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K201" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L201" s="7"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
+      <c r="E202" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F202" s="3"/>
+      <c r="H202" t="s">
+        <v>216</v>
+      </c>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
       <c r="K202" s="7"/>
       <c r="L202" s="7"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A203" s="3"/>
-      <c r="B203" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E203" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F203" s="3"/>
-      <c r="H203" t="s">
-        <v>29</v>
-      </c>
-      <c r="K203" s="7"/>
+      <c r="I203" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="J203" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="K203" s="7" t="s">
+        <v>452</v>
+      </c>
       <c r="L203" s="7"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3" t="s">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I204" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="J204" s="15" t="s">
-        <v>269</v>
+        <v>12</v>
+      </c>
+      <c r="F204" s="3"/>
+      <c r="I204" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="J204" s="29" t="s">
+        <v>435</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>330</v>
+        <v>453</v>
       </c>
       <c r="L204" s="7"/>
     </row>
@@ -6673,7 +7265,7 @@
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3" t="s">
-        <v>31</v>
+        <v>431</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>7</v>
@@ -6682,37 +7274,47 @@
         <v>12</v>
       </c>
       <c r="F205" s="3"/>
+      <c r="I205" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J205" s="29" t="s">
+        <v>435</v>
+      </c>
       <c r="K205" s="7" t="s">
-        <v>331</v>
+        <v>454</v>
       </c>
       <c r="L205" s="7"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A206" s="3"/>
-      <c r="B206" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="D206" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E206" s="3"/>
+      <c r="E206" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F206" s="3"/>
-      <c r="I206" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="J206" s="12" t="s">
-        <v>274</v>
+      <c r="I206" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="J206" s="29" t="s">
+        <v>438</v>
       </c>
       <c r="K206" s="7" t="s">
-        <v>332</v>
+        <v>455</v>
       </c>
       <c r="L206" s="7"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A207" s="3"/>
+      <c r="A207" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="B207" s="3" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
@@ -6720,21 +7322,26 @@
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
-      <c r="I207" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J207" s="13" t="s">
+      <c r="H207" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I207" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J207" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K207" s="7" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="L207" s="7"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A208" s="3"/>
+      <c r="A208" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="B208" s="3" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
@@ -6744,202 +7351,200 @@
         <v>8</v>
       </c>
       <c r="F208" s="3"/>
-      <c r="I208" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J208" s="13" t="s">
-        <v>255</v>
+      <c r="H208" t="s">
+        <v>214</v>
+      </c>
+      <c r="I208" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J208" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="L208" s="7"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A209" s="3"/>
+      <c r="A209" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="B209" s="3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C209" s="3"/>
-      <c r="D209" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F209" s="3"/>
-      <c r="I209" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J209" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K209" s="7" t="s">
-        <v>335</v>
-      </c>
+      <c r="H209" t="s">
+        <v>216</v>
+      </c>
+      <c r="I209" s="12"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="7"/>
       <c r="L209" s="7"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A210" s="3"/>
-      <c r="B210" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="D210" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F210" s="3"/>
-      <c r="I210" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J210" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K210" s="7" t="s">
-        <v>336</v>
+      <c r="I210" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="J210" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="K210" s="27" t="s">
+        <v>456</v>
       </c>
       <c r="L210" s="7"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A211" s="3"/>
-      <c r="B211" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="D211" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F211" s="3"/>
-      <c r="I211" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J211" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="K211" s="7" t="s">
-        <v>337</v>
+      <c r="I211" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="J211" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K211" s="27" t="s">
+        <v>457</v>
       </c>
       <c r="L211" s="7"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A212" s="3"/>
-      <c r="B212" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="D212" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E212" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F212" s="3"/>
-      <c r="H212" t="s">
-        <v>183</v>
-      </c>
-      <c r="K212" s="7"/>
+      <c r="I212" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="J212" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="K212" s="27" t="s">
+        <v>458</v>
+      </c>
       <c r="L212" s="7"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A213" s="3"/>
-      <c r="B213" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="D213" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F213" s="3"/>
-      <c r="I213" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="J213" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K213" s="7" t="s">
-        <v>338</v>
+      <c r="I213" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="J213" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="K213" s="27" t="s">
+        <v>459</v>
       </c>
       <c r="L213" s="7"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I214" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J214" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="K214" s="7" t="s">
-        <v>340</v>
-      </c>
+      <c r="A214" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="7"/>
       <c r="L214" s="7"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A215" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E215" s="3"/>
       <c r="F215" s="3"/>
-      <c r="I215" s="18"/>
-      <c r="J215" s="18"/>
-      <c r="K215" s="7" t="s">
-        <v>341</v>
+      <c r="H215" t="s">
+        <v>183</v>
       </c>
       <c r="L215" s="7"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F216" s="3"/>
-      <c r="I216" s="12" t="s">
-        <v>184</v>
+      <c r="I216" s="24" t="s">
+        <v>387</v>
       </c>
       <c r="J216" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="K216" s="7" t="s">
-        <v>342</v>
+        <v>255</v>
+      </c>
+      <c r="K216" t="s">
+        <v>306</v>
       </c>
       <c r="L216" s="7"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
       <c r="C217" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>7</v>
@@ -6947,212 +7552,213 @@
       <c r="E217" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F217" s="5" t="s">
+      <c r="F217" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I217" s="12" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="J217" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K217" s="7" t="s">
-        <v>343</v>
+        <v>269</v>
+      </c>
+      <c r="K217" t="s">
+        <v>307</v>
       </c>
       <c r="L217" s="7"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
       <c r="C218" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F218" s="3"/>
-      <c r="K218" s="7" t="s">
-        <v>381</v>
+      <c r="I218" s="18"/>
+      <c r="J218" s="18"/>
+      <c r="K218" t="s">
+        <v>308</v>
       </c>
       <c r="L218" s="7"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A219" s="3"/>
+      <c r="B219" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
+      <c r="D219" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F219" s="3"/>
-      <c r="H219" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K219" s="7" t="s">
-        <v>382</v>
+      <c r="I219" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J219" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K219" t="s">
+        <v>309</v>
       </c>
       <c r="L219" s="7"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A220" s="3"/>
       <c r="C220" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I220" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J220" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="K220" s="7" t="s">
-        <v>344</v>
+        <v>255</v>
+      </c>
+      <c r="K220" s="27" t="s">
+        <v>392</v>
       </c>
       <c r="L220" s="7"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A221" s="3"/>
       <c r="C221" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I221" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="J221" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K221" s="7" t="s">
-        <v>345</v>
+        <v>17</v>
+      </c>
+      <c r="F221" s="3"/>
+      <c r="K221" t="s">
+        <v>377</v>
       </c>
       <c r="L221" s="7"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A222" s="3"/>
-      <c r="B222" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
-      <c r="H222" t="s">
-        <v>183</v>
-      </c>
-      <c r="K222" s="7"/>
+      <c r="H222" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K222" t="s">
+        <v>378</v>
+      </c>
       <c r="L222" s="7"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A223" s="3"/>
-      <c r="B223" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C223" s="3"/>
+      <c r="C223" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D223" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F223" s="3"/>
-      <c r="I223" s="24" t="s">
-        <v>387</v>
+      <c r="I223" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="J223" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K223" s="7" t="s">
-        <v>346</v>
+        <v>264</v>
+      </c>
+      <c r="K223" t="s">
+        <v>315</v>
       </c>
       <c r="L223" s="7"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
       <c r="C224" s="3" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I224" s="12" t="s">
-        <v>125</v>
+        <v>24</v>
+      </c>
+      <c r="I224" s="24" t="s">
+        <v>388</v>
       </c>
       <c r="J224" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="K224" s="7" t="s">
-        <v>347</v>
+        <v>255</v>
+      </c>
+      <c r="K224" t="s">
+        <v>316</v>
       </c>
       <c r="L224" s="7"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A225" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
       <c r="F225" s="3"/>
-      <c r="I225" s="18"/>
-      <c r="J225" s="18"/>
-      <c r="K225" s="7" t="s">
-        <v>348</v>
+      <c r="H225" t="s">
+        <v>25</v>
       </c>
       <c r="L225" s="7"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F226" s="3"/>
-      <c r="I226" s="12" t="s">
-        <v>184</v>
+      <c r="I226" s="24" t="s">
+        <v>387</v>
       </c>
       <c r="J226" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="K226" s="7" t="s">
-        <v>349</v>
+        <v>255</v>
+      </c>
+      <c r="K226" t="s">
+        <v>310</v>
       </c>
       <c r="L226" s="7"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
       <c r="C227" s="3" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>7</v>
@@ -7160,474 +7766,452 @@
       <c r="E227" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F227" s="5" t="s">
+      <c r="F227" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I227" s="12" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="J227" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K227" s="7" t="s">
-        <v>350</v>
+        <v>269</v>
+      </c>
+      <c r="K227" t="s">
+        <v>312</v>
       </c>
       <c r="L227" s="7"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
       <c r="C228" s="3" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F228" s="3"/>
-      <c r="K228" s="7" t="s">
-        <v>383</v>
+      <c r="I228" s="18"/>
+      <c r="J228" s="18"/>
+      <c r="K228" t="s">
+        <v>311</v>
       </c>
       <c r="L228" s="7"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A229" s="3"/>
+      <c r="B229" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
+      <c r="D229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F229" s="3"/>
-      <c r="H229" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K229" s="7" t="s">
-        <v>384</v>
+      <c r="I229" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J229" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K229" t="s">
+        <v>314</v>
       </c>
       <c r="L229" s="7"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A230" s="3"/>
       <c r="C230" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F230" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I230" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J230" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="K230" s="7" t="s">
-        <v>351</v>
+        <v>317</v>
+      </c>
+      <c r="K230" t="s">
+        <v>326</v>
       </c>
       <c r="L230" s="7"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A231" s="3"/>
       <c r="C231" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I231" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="J231" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K231" s="7" t="s">
-        <v>352</v>
+        <v>17</v>
+      </c>
+      <c r="F231" s="3"/>
+      <c r="K231" t="s">
+        <v>379</v>
       </c>
       <c r="L231" s="7"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A232" s="3"/>
-      <c r="B232" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
-      <c r="E232" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E232" s="3"/>
       <c r="F232" s="3"/>
-      <c r="H232" t="s">
-        <v>152</v>
-      </c>
-      <c r="K232" s="7"/>
+      <c r="H232" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K232" t="s">
+        <v>380</v>
+      </c>
       <c r="L232" s="7"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A233" s="3"/>
-      <c r="B233" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
+      <c r="C233" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E233" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F233" s="3"/>
-      <c r="I233" s="17"/>
-      <c r="J233" s="17"/>
-      <c r="K233" s="7"/>
+      <c r="I233" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J233" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="K233" t="s">
+        <v>318</v>
+      </c>
       <c r="L233" s="7"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A234" s="3"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F234" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I234" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="J234" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="K234" s="7" t="s">
-        <v>353</v>
+      <c r="C234" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I234" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="J234" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K234" t="s">
+        <v>325</v>
       </c>
       <c r="L234" s="7"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A235" s="3"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E235" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F235" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I235" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="J235" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="K235" s="7" t="s">
-        <v>354</v>
-      </c>
+      <c r="A235" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" s="3"/>
+      <c r="H235" s="7"/>
+      <c r="I235" s="12"/>
+      <c r="J235" s="12"/>
+      <c r="K235" s="7"/>
       <c r="L235" s="7"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A236" s="3"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D236" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F236" s="6"/>
-      <c r="I236" s="17"/>
-      <c r="J236" s="17"/>
-      <c r="K236" s="7" t="s">
-        <v>355</v>
-      </c>
+      <c r="A236" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="H236" t="s">
+        <v>319</v>
+      </c>
+      <c r="K236" s="7"/>
       <c r="L236" s="7"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A237" s="3"/>
-      <c r="B237" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E237" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F237" s="6"/>
+      <c r="B237" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
       <c r="I237" s="13" t="s">
-        <v>154</v>
+        <v>320</v>
       </c>
       <c r="J237" s="13" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K237" s="7" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="L237" s="7"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A238" s="3"/>
-      <c r="B238" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E238" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F238" s="6"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F238" s="3"/>
       <c r="I238" s="13" t="s">
-        <v>155</v>
+        <v>322</v>
       </c>
       <c r="J238" s="13" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="K238" s="7" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="L238" s="7"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A239" s="3"/>
-      <c r="B239" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E239" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F239" s="6"/>
-      <c r="I239" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J239" s="13" t="s">
-        <v>255</v>
-      </c>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F239" s="3"/>
       <c r="K239" s="7" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="L239" s="7"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A240" s="3"/>
-      <c r="B240" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F240" s="6"/>
-      <c r="I240" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="J240" s="13" t="s">
-        <v>255</v>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="H240" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="K240" s="7" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="L240" s="7"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A241" s="3"/>
-      <c r="B241" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F241" s="6"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F241" s="3"/>
       <c r="I241" s="13" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="J241" s="13" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K241" s="7" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="L241" s="7"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A242" s="3"/>
-      <c r="B242" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F242" s="6"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F242" s="3"/>
       <c r="I242" s="13" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="J242" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K242" s="7" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="L242" s="7"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A243" s="3"/>
-      <c r="B243" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F243" s="6"/>
-      <c r="I243" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J243" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K243" s="7" t="s">
-        <v>362</v>
-      </c>
+      <c r="B243" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="K243" s="7"/>
       <c r="L243" s="7"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F244" s="3"/>
       <c r="H244" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="K244" s="7"/>
       <c r="L244" s="7"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A245" s="3"/>
-      <c r="B245" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D245" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F245" s="3"/>
-      <c r="I245" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="J245" s="13" t="s">
-        <v>255</v>
+        <v>17</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I245" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J245" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="K245" s="7" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="L245" s="7"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A246" s="3"/>
-      <c r="B246" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E246" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F246" s="3"/>
-      <c r="K246" s="7"/>
+      <c r="K246" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="L246" s="7"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" s="3"/>
       <c r="F247" s="3"/>
-      <c r="H247" t="s">
-        <v>197</v>
-      </c>
-      <c r="K247" s="7"/>
+      <c r="I247" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J247" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K247" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="L247" s="7"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B248" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C248" s="3"/>
       <c r="D248" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E248" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I248" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="J248" s="12" t="s">
-        <v>269</v>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="I248" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J248" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="K248" s="7" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="L248" s="7"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3" t="s">
@@ -7638,44 +8222,42 @@
       </c>
       <c r="F249" s="3"/>
       <c r="I249" s="13" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="J249" s="13" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="K249" s="7" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="L249" s="7"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E250" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E250" s="3"/>
       <c r="F250" s="3"/>
-      <c r="I250" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="J250" s="16" t="s">
+      <c r="I250" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J250" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K250" s="7" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="L250" s="7"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3" t="s">
@@ -7686,20 +8268,20 @@
       </c>
       <c r="F251" s="3"/>
       <c r="I251" s="13" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="J251" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K251" s="7" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="L251" s="7"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3" t="s">
@@ -7709,153 +8291,1048 @@
         <v>8</v>
       </c>
       <c r="F252" s="3"/>
-      <c r="I252" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="J252" s="13" t="s">
+      <c r="I252" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J252" s="16" t="s">
         <v>255</v>
       </c>
       <c r="K252" s="7" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="L252" s="7"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A253" s="3"/>
       <c r="B253" s="3" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E253" s="3"/>
       <c r="F253" s="3"/>
-      <c r="I253" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="J253" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K253" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="H253" t="s">
+        <v>183</v>
+      </c>
+      <c r="K253" s="7"/>
       <c r="L253" s="7"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F254" s="3"/>
-      <c r="I254" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="J254" s="13" t="s">
+      <c r="I254" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="J254" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K254" s="7" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="L254" s="7"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A255" s="3"/>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="3"/>
+      <c r="C255" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I255" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J255" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="K255" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L255" s="7"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256" s="3"/>
+      <c r="I256" s="18"/>
+      <c r="J256" s="18"/>
+      <c r="K256" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L256" s="7"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257" s="3"/>
+      <c r="I257" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J257" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K257" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L257" s="7"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A258" s="3"/>
+      <c r="C258" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I258" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J258" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K258" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L258" s="7"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A259" s="3"/>
+      <c r="C259" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F259" s="3"/>
+      <c r="K259" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L259" s="7"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="H260" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K260" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L260" s="7"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A261" s="3"/>
+      <c r="C261" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261" s="3"/>
+      <c r="I261" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J261" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="K261" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L261" s="7"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A262" s="3"/>
+      <c r="C262" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I262" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="J262" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K262" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L262" s="7"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A263" s="3"/>
+      <c r="B263" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="H263" t="s">
+        <v>183</v>
+      </c>
+      <c r="K263" s="7"/>
+      <c r="L263" s="7"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" s="3"/>
+      <c r="I264" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="J264" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K264" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L264" s="7"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I265" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J265" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="K265" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L265" s="7"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266" s="3"/>
+      <c r="I266" s="18"/>
+      <c r="J266" s="18"/>
+      <c r="K266" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L266" s="7"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A267" s="3"/>
+      <c r="B267" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267" s="3"/>
+      <c r="I267" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J267" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K267" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L267" s="7"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A268" s="3"/>
+      <c r="C268" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I268" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J268" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K268" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L268" s="7"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A269" s="3"/>
+      <c r="C269" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F269" s="3"/>
+      <c r="K269" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L269" s="7"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A270" s="3"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="H270" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K270" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L270" s="7"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A271" s="3"/>
+      <c r="C271" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271" s="3"/>
+      <c r="I271" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J271" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="K271" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L271" s="7"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A272" s="3"/>
+      <c r="C272" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I272" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="J272" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K272" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L272" s="7"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A273" s="3"/>
+      <c r="B273" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273" s="3"/>
+      <c r="H273" t="s">
+        <v>152</v>
+      </c>
+      <c r="K273" s="7"/>
+      <c r="L273" s="7"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A274" s="3"/>
+      <c r="B274" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F274" s="3"/>
+      <c r="I274" s="17"/>
+      <c r="J274" s="17"/>
+      <c r="K274" s="7"/>
+      <c r="L274" s="7"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A275" s="3"/>
+      <c r="B275" s="6"/>
+      <c r="C275" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I275" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J275" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="K275" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L275" s="7"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A276" s="3"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I276" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="J276" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="K276" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L276" s="7"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A277" s="3"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277" s="6"/>
+      <c r="I277" s="17"/>
+      <c r="J277" s="17"/>
+      <c r="K277" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L277" s="7"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A278" s="3"/>
+      <c r="B278" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278" s="6"/>
+      <c r="I278" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J278" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="K278" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L278" s="7"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A279" s="3"/>
+      <c r="B279" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F279" s="6"/>
+      <c r="I279" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J279" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K279" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L279" s="7"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A280" s="3"/>
+      <c r="B280" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280" s="6"/>
+      <c r="I280" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J280" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K280" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L280" s="7"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A281" s="3"/>
+      <c r="B281" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281" s="6"/>
+      <c r="I281" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J281" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K281" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L281" s="7"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A282" s="3"/>
+      <c r="B282" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F282" s="6"/>
+      <c r="I282" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J282" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K282" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L282" s="7"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A283" s="3"/>
+      <c r="B283" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283" s="6"/>
+      <c r="I283" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J283" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K283" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L283" s="7"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A284" s="3"/>
+      <c r="B284" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F284" s="6"/>
+      <c r="I284" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J284" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K284" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L284" s="7"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A285" s="3"/>
+      <c r="B285" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F285" s="3"/>
+      <c r="H285" t="s">
+        <v>197</v>
+      </c>
+      <c r="K285" s="7"/>
+      <c r="L285" s="7"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A286" s="3"/>
+      <c r="B286" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286" s="3"/>
+      <c r="I286" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="J286" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K286" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L286" s="7"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A287" s="3"/>
+      <c r="B287" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F287" s="3"/>
+      <c r="K287" s="7"/>
+      <c r="L287" s="7"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A288" s="3"/>
+      <c r="B288" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F288" s="3"/>
+      <c r="H288" t="s">
+        <v>197</v>
+      </c>
+      <c r="K288" s="7"/>
+      <c r="L288" s="7"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A289" s="3"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I289" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="J289" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="K289" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L289" s="7"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A290" s="3"/>
+      <c r="B290" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290" s="3"/>
+      <c r="I290" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J290" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="K290" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L290" s="7"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A291" s="3"/>
+      <c r="B291" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291" s="3"/>
+      <c r="I291" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="J291" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="K291" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L291" s="7"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A292" s="3"/>
+      <c r="B292" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292" s="3"/>
+      <c r="I292" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J292" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K292" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L292" s="7"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A293" s="3"/>
+      <c r="B293" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293" s="3"/>
+      <c r="I293" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="J293" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K293" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L293" s="7"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A294" s="3"/>
+      <c r="B294" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294" s="3"/>
+      <c r="I294" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="J294" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K294" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L294" s="7"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A295" s="3"/>
+      <c r="B295" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F295" s="3"/>
+      <c r="I295" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J295" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K295" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L295" s="7"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A296" s="3"/>
+      <c r="B296" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F255" s="3"/>
-      <c r="I255" s="16" t="s">
+      <c r="C296" s="3"/>
+      <c r="D296" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296" s="3"/>
+      <c r="I296" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="J255" s="16" t="s">
+      <c r="J296" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="K255" s="7" t="s">
+      <c r="K296" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="L255" s="7"/>
-    </row>
-    <row r="256" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A256" s="3" t="s">
+      <c r="L296" s="7"/>
+    </row>
+    <row r="297" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A297" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B297" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F256" s="3"/>
-      <c r="H256" t="s">
+      <c r="C297" s="3"/>
+      <c r="D297" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F297" s="3"/>
+      <c r="H297" t="s">
         <v>220</v>
       </c>
-      <c r="I256" s="12" t="s">
+      <c r="I297" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="J256" s="12"/>
-      <c r="K256" s="7" t="s">
+      <c r="J297" s="12"/>
+      <c r="K297" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="L256" s="7"/>
-    </row>
-    <row r="257" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H257" s="7"/>
-      <c r="I257" s="14"/>
-      <c r="J257" s="14"/>
-      <c r="K257" s="7"/>
-      <c r="L257" s="7"/>
-    </row>
-    <row r="258" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H258" s="7"/>
-      <c r="I258" s="14"/>
-      <c r="J258" s="14"/>
-      <c r="K258" s="7"/>
-      <c r="L258" s="7"/>
-    </row>
-    <row r="259" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H259" s="7"/>
-      <c r="I259" s="14"/>
-      <c r="J259" s="14"/>
-      <c r="K259" s="7"/>
-      <c r="L259" s="7"/>
-    </row>
-    <row r="260" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G260" t="s">
+      <c r="L297" s="7"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H298" s="7"/>
+      <c r="I298" s="14"/>
+      <c r="J298" s="14"/>
+      <c r="K298" s="7"/>
+      <c r="L298" s="7"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H299" s="7"/>
+      <c r="I299" s="14"/>
+      <c r="J299" s="14"/>
+      <c r="K299" s="7"/>
+      <c r="L299" s="7"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H300" s="7"/>
+      <c r="I300" s="14"/>
+      <c r="J300" s="14"/>
+      <c r="K300" s="7"/>
+      <c r="L300" s="7"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G301" t="s">
         <v>227</v>
       </c>
-      <c r="H260" s="7"/>
-      <c r="I260" s="14"/>
-      <c r="J260" s="14"/>
-      <c r="K260" s="7"/>
-      <c r="L260" s="7"/>
-    </row>
-    <row r="261" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H261" s="7"/>
-      <c r="I261" s="12"/>
-      <c r="J261" s="12"/>
-      <c r="K261" s="7"/>
-      <c r="L261" s="7"/>
+      <c r="H301" s="7"/>
+      <c r="I301" s="14"/>
+      <c r="J301" s="14"/>
+      <c r="K301" s="7"/>
+      <c r="L301" s="7"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H302" s="7"/>
+      <c r="I302" s="12"/>
+      <c r="J302" s="12"/>
+      <c r="K302" s="7"/>
+      <c r="L302" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/mapping/mml4_referral_mapping.xlsx
+++ b/mapping/mml4_referral_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="598">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -2110,10 +2110,6 @@
   </si>
   <si>
     <t>mmlInj:narcoticPrescriptionLicenseNumber</t>
-  </si>
-  <si>
-    <t>/context/other_context[at0001]/items[openEHR-EHR-CLUSTER.prescription_condition.v0]/items[at0004]/value</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>mmlInj:comment</t>
@@ -2791,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD202"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="K200" sqref="A161:K200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6764,7 +6760,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A183" s="36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B183" s="31" t="s">
         <v>540</v>
@@ -6779,7 +6775,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A184" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B184" s="31" t="s">
         <v>541</v>
@@ -6796,7 +6792,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A185" s="36" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B185" s="31" t="s">
         <v>542</v>
@@ -6811,7 +6807,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A186" s="36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B186" s="31" t="s">
         <v>543</v>
@@ -6829,13 +6825,13 @@
         <v>463</v>
       </c>
       <c r="K186" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L186" s="7"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B187" s="31" t="s">
         <v>545</v>
@@ -6851,7 +6847,7 @@
       <c r="I187"/>
       <c r="J187"/>
       <c r="K187" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L187" s="7"/>
     </row>
@@ -6869,7 +6865,7 @@
       <c r="I188"/>
       <c r="J188"/>
       <c r="K188" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L188" s="7"/>
     </row>
@@ -6885,13 +6881,13 @@
         <v>470</v>
       </c>
       <c r="K189" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L189" s="7"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B190" s="31" t="s">
         <v>547</v>
@@ -6909,13 +6905,13 @@
         <v>474</v>
       </c>
       <c r="K190" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L190" s="7"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" s="36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B191" s="31" t="s">
         <v>548</v>
@@ -6929,13 +6925,13 @@
       <c r="I191"/>
       <c r="J191"/>
       <c r="K191" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L191" s="7"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" s="36" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B192" s="31" t="s">
         <v>549</v>
@@ -6955,13 +6951,13 @@
         <v>480</v>
       </c>
       <c r="K192" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L192" s="7"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193" s="36" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B193" s="31" t="s">
         <v>552</v>
@@ -6981,13 +6977,13 @@
         <v>480</v>
       </c>
       <c r="K193" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L193" s="7"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A194" s="36" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B194" s="31" t="s">
         <v>554</v>
@@ -7007,13 +7003,13 @@
         <v>463</v>
       </c>
       <c r="K194" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L194" s="7"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A195" s="36" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B195" s="31" t="s">
         <v>556</v>
@@ -7033,13 +7029,13 @@
         <v>463</v>
       </c>
       <c r="K195" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L195" s="7"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A196" s="36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B196" s="31" t="s">
         <v>557</v>
@@ -7059,13 +7055,13 @@
         <v>463</v>
       </c>
       <c r="K196" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L196" s="7"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A197" s="36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B197" s="31" t="s">
         <v>559</v>
@@ -7085,13 +7081,13 @@
         <v>463</v>
       </c>
       <c r="K197" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L197" s="7"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A198" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B198" s="31" t="s">
         <v>561</v>
@@ -7111,13 +7107,13 @@
         <v>495</v>
       </c>
       <c r="K198" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L198" s="7"/>
     </row>
     <row r="199" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A199" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B199" s="31" t="s">
         <v>562</v>
@@ -7137,13 +7133,13 @@
         <v>463</v>
       </c>
       <c r="K199" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L199" s="7"/>
     </row>
     <row r="200" spans="1:12" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A200" s="37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B200" s="33" t="s">
         <v>563</v>
@@ -7162,16 +7158,13 @@
       <c r="J200" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="K200" s="9" t="s">
-        <v>564</v>
-      </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A201" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C201" s="31"/>
       <c r="D201" s="31" t="s">
@@ -7182,13 +7175,13 @@
       </c>
       <c r="F201" s="31"/>
       <c r="I201" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J201" t="s">
         <v>463</v>
       </c>
       <c r="K201" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L201" s="7"/>
     </row>

--- a/mapping/mml4_referral_mapping.xlsx
+++ b/mapping/mml4_referral_mapping.xlsx
@@ -1142,34 +1142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.15]/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0011.1]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0001]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/terimnology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.15]/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_IDENTIFIER</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1178,22 +1150,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.13]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.14]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DV_TEXT</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.13]/magnitude</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.individual_professional-mml.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1218,14 +1178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.14]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[at0.22]/defining_code/match</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1426,22 +1378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/target/defining_code/terminology_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to department']/items[at0.12]/mappings/match</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.individual_professional-mml.v1 and name/value='Professional Individual demographics for MML']/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1482,10 +1418,6 @@
   </si>
   <si>
     <t>*structured telecoms/City</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.referral_details.v1 and name/value='Referral Details']/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='refer to facility']/items[at0.12]/value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2243,6 +2175,74 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v0 and name/value='Injection']/activities[at0001]/description[at0002]/items[at0009]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/match/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0011.1]/defining_code/terimnology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/target/defining_code/terminology_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.referral_details.v1]/items[openEHR-EHR-INSTRUCTION.request-referral.v1]/protocol[at0008]/items[openEHR-EHR-CLUSTER.adhoc_cluster_heading.v1]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.14]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2787,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="K200" sqref="A161:K200"/>
+    <sheetView tabSelected="1" topLeftCell="H206" workbookViewId="0">
+      <selection activeCell="K235" sqref="K235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2804,7 +2804,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -3010,7 +3010,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="22" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -3435,7 +3435,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="23" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -3609,7 +3609,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="23" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="7"/>
@@ -3875,7 +3875,7 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="23" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="7"/>
@@ -3918,7 +3918,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="23" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="7"/>
@@ -3961,7 +3961,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="23" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -4115,7 +4115,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="25" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="7"/>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>180</v>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="F72" s="3"/>
       <c r="K72" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="L72" s="7"/>
     </row>
@@ -4280,7 +4280,7 @@
         <v>262</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="L73" s="7"/>
     </row>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="F87" s="3"/>
       <c r="I87" s="24" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="J87" s="12" t="s">
         <v>255</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="F92" s="3"/>
       <c r="K92" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="L92" s="7"/>
     </row>
@@ -4706,7 +4706,7 @@
         <v>262</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L93" s="7"/>
     </row>
@@ -4748,7 +4748,7 @@
         <v>24</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="J95" s="12" t="s">
         <v>255</v>
@@ -4787,13 +4787,13 @@
       </c>
       <c r="F97" s="3"/>
       <c r="I97" s="24" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="J97" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="L97" s="7"/>
     </row>
@@ -4819,7 +4819,7 @@
         <v>257</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="L98" s="7"/>
     </row>
@@ -4838,7 +4838,7 @@
       <c r="F99" s="3"/>
       <c r="I99" s="18"/>
       <c r="K99" s="12" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="L99" s="7"/>
     </row>
@@ -4862,7 +4862,7 @@
         <v>267</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="L100" s="7"/>
     </row>
@@ -4887,7 +4887,7 @@
         <v>255</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="L101" s="7"/>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="F102" s="3"/>
       <c r="K102" s="12" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="L102" s="7"/>
     </row>
@@ -4918,7 +4918,7 @@
         <v>262</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="L103" s="7"/>
     </row>
@@ -4941,7 +4941,7 @@
         <v>268</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="L104" s="7"/>
     </row>
@@ -4960,13 +4960,13 @@
         <v>24</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="J105" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="L105" s="7"/>
     </row>
@@ -5045,7 +5045,7 @@
         <v>44</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="J109" s="17" t="s">
         <v>269</v>
@@ -5280,7 +5280,7 @@
         <v>255</v>
       </c>
       <c r="K119" s="7" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="L119" s="7"/>
     </row>
@@ -5331,13 +5331,13 @@
         <v>59</v>
       </c>
       <c r="I122" s="25" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="J122" s="12" t="s">
         <v>269</v>
       </c>
       <c r="K122" s="7" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="L122" s="7"/>
     </row>
@@ -5361,7 +5361,7 @@
         <v>271</v>
       </c>
       <c r="K123" s="7" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="L123" s="7"/>
     </row>
@@ -5379,13 +5379,13 @@
       </c>
       <c r="F124" s="3"/>
       <c r="I124" s="23" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="J124" s="16" t="s">
         <v>255</v>
       </c>
       <c r="K124" s="7" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="L124" s="7"/>
     </row>
@@ -5409,7 +5409,7 @@
         <v>255</v>
       </c>
       <c r="K125" s="7" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="L125" s="7"/>
     </row>
@@ -5427,13 +5427,13 @@
       </c>
       <c r="F126" s="3"/>
       <c r="I126" s="25" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="J126" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="L126" s="7"/>
     </row>
@@ -5457,7 +5457,7 @@
         <v>255</v>
       </c>
       <c r="K127" s="7" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="L127" s="7"/>
     </row>
@@ -5481,7 +5481,7 @@
         <v>255</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="L128" s="7"/>
     </row>
@@ -5505,13 +5505,13 @@
         <v>255</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="L129" s="7"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>74</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>75</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>76</v>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>77</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>78</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>16</v>
@@ -5670,7 +5670,7 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>7</v>
@@ -5681,13 +5681,13 @@
       <c r="F136" s="3"/>
       <c r="H136" s="7"/>
       <c r="I136" s="28" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="J136" s="29" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="L136" s="7"/>
     </row>
@@ -5695,7 +5695,7 @@
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>7</v>
@@ -5706,13 +5706,13 @@
       <c r="F137" s="3"/>
       <c r="H137" s="7"/>
       <c r="I137" s="29" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="J137" s="29" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="L137" s="7"/>
     </row>
@@ -5720,7 +5720,7 @@
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>7</v>
@@ -5731,13 +5731,13 @@
       <c r="F138" s="3"/>
       <c r="H138" s="7"/>
       <c r="I138" s="29" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="J138" s="29" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="K138" s="7" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="L138" s="7"/>
     </row>
@@ -5745,7 +5745,7 @@
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>7</v>
@@ -5756,13 +5756,13 @@
       <c r="F139" s="3"/>
       <c r="H139" s="7"/>
       <c r="I139" s="29" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="J139" s="29" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="L139" s="7"/>
     </row>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>79</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>16</v>
@@ -5833,7 +5833,7 @@
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>7</v>
@@ -5858,7 +5858,7 @@
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>7</v>
@@ -5877,7 +5877,7 @@
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>7</v>
@@ -5896,7 +5896,7 @@
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>7</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>80</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>16</v>
@@ -5961,7 +5961,7 @@
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>7</v>
@@ -5972,13 +5972,13 @@
       <c r="F149" s="3"/>
       <c r="H149" s="7"/>
       <c r="I149" s="28" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="J149" s="29" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="L149" s="7"/>
     </row>
@@ -5986,7 +5986,7 @@
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>7</v>
@@ -5997,13 +5997,13 @@
       <c r="F150" s="3"/>
       <c r="H150" s="7"/>
       <c r="I150" s="29" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="J150" s="29" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="L150" s="7"/>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>7</v>
@@ -6022,13 +6022,13 @@
       <c r="F151" s="3"/>
       <c r="H151" s="7"/>
       <c r="I151" s="29" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="J151" s="29" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="L151" s="7"/>
     </row>
@@ -6036,7 +6036,7 @@
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>7</v>
@@ -6047,13 +6047,13 @@
       <c r="F152" s="3"/>
       <c r="H152" s="7"/>
       <c r="I152" s="29" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="J152" s="29" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="L152" s="7"/>
     </row>
@@ -6111,7 +6111,7 @@
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>7</v>
@@ -6121,13 +6121,13 @@
       </c>
       <c r="F155" s="3"/>
       <c r="I155" s="28" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="J155" s="29" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="K155" s="7" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="L155" s="7"/>
     </row>
@@ -6135,7 +6135,7 @@
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>7</v>
@@ -6145,13 +6145,13 @@
       </c>
       <c r="F156" s="3"/>
       <c r="I156" s="29" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="J156" s="29" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="L156" s="7"/>
     </row>
@@ -6159,7 +6159,7 @@
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>7</v>
@@ -6169,13 +6169,13 @@
       </c>
       <c r="F157" s="3"/>
       <c r="I157" s="29" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="J157" s="29" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="L157" s="7"/>
     </row>
@@ -6183,7 +6183,7 @@
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>7</v>
@@ -6193,13 +6193,13 @@
       </c>
       <c r="F158" s="3"/>
       <c r="I158" s="29" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="J158" s="29" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="L158" s="7"/>
     </row>
@@ -6261,10 +6261,10 @@
     </row>
     <row r="161" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A161" s="30" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C161" s="31"/>
       <c r="D161" s="31"/>
@@ -6277,10 +6277,10 @@
     </row>
     <row r="162" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="32" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
@@ -6289,18 +6289,18 @@
       </c>
       <c r="F162" s="33"/>
       <c r="I162" s="9" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" s="30" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C163" s="31"/>
       <c r="D163" s="31"/>
@@ -6315,10 +6315,10 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" s="30" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C164" s="31"/>
       <c r="D164" s="31"/>
@@ -6331,10 +6331,10 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A165" s="30" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="C165" s="31"/>
       <c r="D165" s="31" t="s">
@@ -6343,22 +6343,22 @@
       <c r="E165" s="31"/>
       <c r="F165" s="31"/>
       <c r="I165" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="J165" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K165" s="7" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="L165" s="7"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" s="30" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C166" s="31"/>
       <c r="D166" s="31" t="s">
@@ -6371,7 +6371,7 @@
       <c r="I166"/>
       <c r="J166"/>
       <c r="K166" s="7" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="L166" s="7"/>
     </row>
@@ -6379,7 +6379,7 @@
       <c r="A167" s="30"/>
       <c r="B167" s="31"/>
       <c r="C167" s="31" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="D167" s="31" t="s">
         <v>7</v>
@@ -6391,7 +6391,7 @@
       <c r="I167"/>
       <c r="J167"/>
       <c r="K167" s="7" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="L167" s="7"/>
     </row>
@@ -6404,43 +6404,43 @@
       <c r="F168" s="31"/>
       <c r="I168"/>
       <c r="J168" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="L168" s="7"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169" s="30" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="C169" s="31"/>
       <c r="D169" s="31" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E169" s="31"/>
       <c r="F169" s="31"/>
       <c r="I169" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="J169" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="K169" s="7" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="L169" s="7"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" s="30" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C170" s="31"/>
       <c r="D170" s="31" t="s">
@@ -6451,40 +6451,40 @@
       <c r="I170"/>
       <c r="J170"/>
       <c r="K170" s="7" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="L170" s="7"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" s="30" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C171" s="31"/>
       <c r="D171" s="31" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E171" s="31"/>
       <c r="F171" s="31"/>
       <c r="I171" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="J171" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="K171" s="7" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="L171" s="7"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" s="30" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C172" s="31"/>
       <c r="D172" s="31" t="s">
@@ -6495,48 +6495,48 @@
       </c>
       <c r="F172" s="31"/>
       <c r="I172" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="J172" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="K172" s="7" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="L172" s="7"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="30" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="C173" s="31"/>
       <c r="D173" s="31" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E173" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F173" s="31"/>
       <c r="I173" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="J173" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="L173" s="7"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" s="30" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C174" s="31"/>
       <c r="D174" s="31" t="s">
@@ -6547,22 +6547,22 @@
       </c>
       <c r="F174" s="31"/>
       <c r="I174" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="J174" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K174" s="7" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="L174" s="7"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" s="30" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="C175" s="31"/>
       <c r="D175" s="31" t="s">
@@ -6573,22 +6573,22 @@
       </c>
       <c r="F175" s="31"/>
       <c r="I175" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="J175" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="K175" s="7" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="L175" s="7"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" s="30" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C176" s="31"/>
       <c r="D176" s="31" t="s">
@@ -6599,22 +6599,22 @@
       </c>
       <c r="F176" s="31"/>
       <c r="I176" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="J176" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K176" s="7" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="L176" s="7"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A177" s="30" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C177" s="31"/>
       <c r="D177" s="31" t="s">
@@ -6625,48 +6625,48 @@
       </c>
       <c r="F177" s="31"/>
       <c r="I177" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="J177" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K177" s="7" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="L177" s="7"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A178" s="30" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C178" s="31"/>
       <c r="D178" s="31" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E178" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F178" s="31"/>
       <c r="I178" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="J178" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="K178" s="7" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="L178" s="7"/>
     </row>
     <row r="179" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A179" s="30" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="C179" s="31"/>
       <c r="D179" s="31" t="s">
@@ -6677,22 +6677,22 @@
       </c>
       <c r="F179" s="31"/>
       <c r="I179" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="J179" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="K179" s="7" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="L179" s="7"/>
     </row>
     <row r="180" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="32" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="C180" s="33"/>
       <c r="D180" s="33" t="s">
@@ -6703,18 +6703,18 @@
       </c>
       <c r="F180" s="33"/>
       <c r="I180" s="9" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A181" s="30" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="C181" s="31"/>
       <c r="D181" s="31" t="s">
@@ -6725,22 +6725,22 @@
       </c>
       <c r="F181" s="31"/>
       <c r="I181" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="J181" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="L181" s="7"/>
     </row>
     <row r="182" spans="1:12" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A182" s="32" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="B182" s="33" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="D182" s="33" t="s">
         <v>7</v>
@@ -6752,18 +6752,18 @@
       <c r="G182" s="34"/>
       <c r="H182" s="34"/>
       <c r="I182" s="35" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="J182" s="35" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A183" s="36" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C183" s="31"/>
       <c r="D183" s="31"/>
@@ -6775,10 +6775,10 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A184" s="36" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="C184" s="31"/>
       <c r="D184" s="31"/>
@@ -6792,10 +6792,10 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A185" s="36" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="C185" s="31"/>
       <c r="D185" s="31"/>
@@ -6807,10 +6807,10 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A186" s="36" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="C186" s="31"/>
       <c r="D186" s="31" t="s">
@@ -6819,22 +6819,22 @@
       <c r="E186" s="31"/>
       <c r="F186" s="31"/>
       <c r="I186" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="J186" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K186" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="L186" s="7"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="36" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="C187" s="31"/>
       <c r="D187" s="31" t="s">
@@ -6847,7 +6847,7 @@
       <c r="I187"/>
       <c r="J187"/>
       <c r="K187" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="L187" s="7"/>
     </row>
@@ -6855,7 +6855,7 @@
       <c r="A188" s="36"/>
       <c r="B188" s="31"/>
       <c r="C188" s="31" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="D188" s="31" t="s">
         <v>7</v>
@@ -6865,7 +6865,7 @@
       <c r="I188"/>
       <c r="J188"/>
       <c r="K188" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="L188" s="7"/>
     </row>
@@ -6878,43 +6878,43 @@
       <c r="F189" s="31"/>
       <c r="I189"/>
       <c r="J189" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="K189" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="L189" s="7"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" s="36" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="C190" s="31"/>
       <c r="D190" s="31" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E190" s="31"/>
       <c r="F190" s="31"/>
       <c r="I190" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="J190" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="K190" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="L190" s="7"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" s="36" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="C191" s="31"/>
       <c r="D191" s="31" t="s">
@@ -6925,68 +6925,68 @@
       <c r="I191"/>
       <c r="J191"/>
       <c r="K191" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="L191" s="7"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" s="36" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="C192" s="31"/>
       <c r="D192" s="31" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="E192" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F192" s="31"/>
       <c r="I192" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="J192" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="K192" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="L192" s="7"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193" s="36" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="C193" s="31"/>
       <c r="D193" s="31" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="E193" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F193" s="31"/>
       <c r="I193" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="J193" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="K193" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="L193" s="7"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A194" s="36" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="C194" s="31"/>
       <c r="D194" s="31" t="s">
@@ -6997,22 +6997,22 @@
       </c>
       <c r="F194" s="31"/>
       <c r="I194" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="J194" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K194" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="L194" s="7"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A195" s="36" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="C195" s="31"/>
       <c r="D195" s="31" t="s">
@@ -7023,22 +7023,22 @@
       </c>
       <c r="F195" s="31"/>
       <c r="I195" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="J195" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K195" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="L195" s="7"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A196" s="36" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="C196" s="31"/>
       <c r="D196" s="31" t="s">
@@ -7049,22 +7049,22 @@
       </c>
       <c r="F196" s="31"/>
       <c r="I196" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="J196" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K196" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="L196" s="7"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A197" s="36" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="C197" s="31"/>
       <c r="D197" s="31" t="s">
@@ -7075,48 +7075,48 @@
       </c>
       <c r="F197" s="31"/>
       <c r="I197" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="J197" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K197" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="L197" s="7"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A198" s="36" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="B198" s="31" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="C198" s="31"/>
       <c r="D198" s="31" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E198" s="31" t="s">
         <v>8</v>
       </c>
       <c r="F198" s="31"/>
       <c r="I198" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="J198" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="K198" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="L198" s="7"/>
     </row>
     <row r="199" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A199" s="36" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B199" s="31" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C199" s="31"/>
       <c r="D199" s="31" t="s">
@@ -7127,22 +7127,22 @@
       </c>
       <c r="F199" s="31"/>
       <c r="I199" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="J199" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K199" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="L199" s="7"/>
     </row>
     <row r="200" spans="1:12" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A200" s="37" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="B200" s="33" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="C200" s="33"/>
       <c r="D200" s="33" t="s">
@@ -7153,18 +7153,18 @@
       </c>
       <c r="F200" s="33"/>
       <c r="I200" s="9" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="J200" s="9" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A201" s="36" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="C201" s="31"/>
       <c r="D201" s="31" t="s">
@@ -7175,13 +7175,13 @@
       </c>
       <c r="F201" s="31"/>
       <c r="I201" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="J201" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="K201" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="L201" s="7"/>
     </row>
@@ -7210,7 +7210,7 @@
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>7</v>
@@ -7220,13 +7220,13 @@
       </c>
       <c r="F203" s="3"/>
       <c r="I203" s="28" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="J203" s="29" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="K203" s="7" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="L203" s="7"/>
     </row>
@@ -7234,7 +7234,7 @@
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>7</v>
@@ -7244,13 +7244,13 @@
       </c>
       <c r="F204" s="3"/>
       <c r="I204" s="29" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="J204" s="29" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="L204" s="7"/>
     </row>
@@ -7258,7 +7258,7 @@
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>7</v>
@@ -7268,13 +7268,13 @@
       </c>
       <c r="F205" s="3"/>
       <c r="I205" s="29" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="J205" s="29" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="L205" s="7"/>
     </row>
@@ -7282,7 +7282,7 @@
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>7</v>
@@ -7292,13 +7292,13 @@
       </c>
       <c r="F206" s="3"/>
       <c r="I206" s="29" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="J206" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="K206" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K206" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="L206" s="7"/>
     </row>
@@ -7383,7 +7383,7 @@
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>7</v>
@@ -7393,13 +7393,13 @@
       </c>
       <c r="F210" s="3"/>
       <c r="I210" s="28" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="J210" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="K210" s="27" t="s">
         <v>439</v>
-      </c>
-      <c r="K210" s="27" t="s">
-        <v>456</v>
       </c>
       <c r="L210" s="7"/>
     </row>
@@ -7407,7 +7407,7 @@
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>7</v>
@@ -7417,13 +7417,13 @@
       </c>
       <c r="F211" s="3"/>
       <c r="I211" s="29" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="J211" s="29" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="K211" s="27" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="L211" s="7"/>
     </row>
@@ -7431,7 +7431,7 @@
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>7</v>
@@ -7441,13 +7441,13 @@
       </c>
       <c r="F212" s="3"/>
       <c r="I212" s="29" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="J212" s="29" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="K212" s="27" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="L212" s="7"/>
     </row>
@@ -7455,7 +7455,7 @@
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>7</v>
@@ -7465,13 +7465,13 @@
       </c>
       <c r="F213" s="3"/>
       <c r="I213" s="29" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="J213" s="29" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="K213" s="27" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="L213" s="7"/>
     </row>
@@ -7523,13 +7523,13 @@
       </c>
       <c r="F216" s="3"/>
       <c r="I216" s="24" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="J216" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K216" t="s">
-        <v>306</v>
+        <v>581</v>
       </c>
       <c r="L216" s="7"/>
     </row>
@@ -7555,7 +7555,7 @@
         <v>269</v>
       </c>
       <c r="K217" t="s">
-        <v>307</v>
+        <v>582</v>
       </c>
       <c r="L217" s="7"/>
     </row>
@@ -7575,7 +7575,7 @@
       <c r="I218" s="18"/>
       <c r="J218" s="18"/>
       <c r="K218" t="s">
-        <v>308</v>
+        <v>583</v>
       </c>
       <c r="L218" s="7"/>
     </row>
@@ -7599,7 +7599,7 @@
         <v>267</v>
       </c>
       <c r="K219" t="s">
-        <v>309</v>
+        <v>584</v>
       </c>
       <c r="L219" s="7"/>
     </row>
@@ -7624,7 +7624,7 @@
         <v>255</v>
       </c>
       <c r="K220" s="27" t="s">
-        <v>392</v>
+        <v>585</v>
       </c>
       <c r="L220" s="7"/>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="F221" s="3"/>
       <c r="K221" t="s">
-        <v>377</v>
+        <v>586</v>
       </c>
       <c r="L221" s="7"/>
     </row>
@@ -7655,7 +7655,7 @@
         <v>262</v>
       </c>
       <c r="K222" t="s">
-        <v>378</v>
+        <v>587</v>
       </c>
       <c r="L222" s="7"/>
     </row>
@@ -7678,7 +7678,7 @@
         <v>264</v>
       </c>
       <c r="K223" t="s">
-        <v>315</v>
+        <v>588</v>
       </c>
       <c r="L223" s="7"/>
     </row>
@@ -7697,13 +7697,13 @@
         <v>24</v>
       </c>
       <c r="I224" s="24" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="J224" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K224" t="s">
-        <v>316</v>
+        <v>589</v>
       </c>
       <c r="L224" s="7"/>
     </row>
@@ -7737,13 +7737,13 @@
       </c>
       <c r="F226" s="3"/>
       <c r="I226" s="24" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="J226" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K226" t="s">
-        <v>310</v>
+        <v>590</v>
       </c>
       <c r="L226" s="7"/>
     </row>
@@ -7769,7 +7769,7 @@
         <v>269</v>
       </c>
       <c r="K227" t="s">
-        <v>312</v>
+        <v>591</v>
       </c>
       <c r="L227" s="7"/>
     </row>
@@ -7789,7 +7789,7 @@
       <c r="I228" s="18"/>
       <c r="J228" s="18"/>
       <c r="K228" t="s">
-        <v>311</v>
+        <v>592</v>
       </c>
       <c r="L228" s="7"/>
     </row>
@@ -7810,10 +7810,10 @@
         <v>184</v>
       </c>
       <c r="J229" s="12" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K229" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L229" s="7"/>
     </row>
@@ -7835,10 +7835,10 @@
         <v>185</v>
       </c>
       <c r="J230" s="12" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K230" t="s">
-        <v>326</v>
+        <v>593</v>
       </c>
       <c r="L230" s="7"/>
     </row>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="F231" s="3"/>
       <c r="K231" t="s">
-        <v>379</v>
+        <v>594</v>
       </c>
       <c r="L231" s="7"/>
     </row>
@@ -7869,7 +7869,7 @@
         <v>262</v>
       </c>
       <c r="K232" t="s">
-        <v>380</v>
+        <v>595</v>
       </c>
       <c r="L232" s="7"/>
     </row>
@@ -7892,7 +7892,7 @@
         <v>264</v>
       </c>
       <c r="K233" t="s">
-        <v>318</v>
+        <v>596</v>
       </c>
       <c r="L233" s="7"/>
     </row>
@@ -7911,13 +7911,13 @@
         <v>24</v>
       </c>
       <c r="I234" s="24" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="J234" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K234" t="s">
-        <v>325</v>
+        <v>597</v>
       </c>
       <c r="L234" s="7"/>
     </row>
@@ -7952,7 +7952,7 @@
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="H236" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K236" s="7"/>
       <c r="L236" s="7"/>
@@ -7969,13 +7969,13 @@
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="I237" s="13" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J237" s="13" t="s">
         <v>267</v>
       </c>
       <c r="K237" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L237" s="7"/>
     </row>
@@ -7993,13 +7993,13 @@
       </c>
       <c r="F238" s="3"/>
       <c r="I238" s="13" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J238" s="13" t="s">
         <v>274</v>
       </c>
       <c r="K238" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L238" s="7"/>
     </row>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="F239" s="3"/>
       <c r="K239" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L239" s="7"/>
     </row>
@@ -8032,7 +8032,7 @@
         <v>262</v>
       </c>
       <c r="K240" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L240" s="7"/>
     </row>
@@ -8056,7 +8056,7 @@
         <v>264</v>
       </c>
       <c r="K241" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L241" s="7"/>
     </row>
@@ -8080,7 +8080,7 @@
         <v>255</v>
       </c>
       <c r="K242" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L242" s="7"/>
     </row>
@@ -8135,7 +8135,7 @@
         <v>269</v>
       </c>
       <c r="K245" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L245" s="7"/>
     </row>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="F246" s="3"/>
       <c r="K246" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L246" s="7"/>
     </row>
@@ -8175,7 +8175,7 @@
         <v>274</v>
       </c>
       <c r="K247" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="L247" s="7"/>
     </row>
@@ -8197,7 +8197,7 @@
         <v>255</v>
       </c>
       <c r="K248" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="L248" s="7"/>
     </row>
@@ -8221,7 +8221,7 @@
         <v>255</v>
       </c>
       <c r="K249" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L249" s="7"/>
     </row>
@@ -8243,7 +8243,7 @@
         <v>255</v>
       </c>
       <c r="K250" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L250" s="7"/>
     </row>
@@ -8267,7 +8267,7 @@
         <v>255</v>
       </c>
       <c r="K251" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="L251" s="7"/>
     </row>
@@ -8291,7 +8291,7 @@
         <v>255</v>
       </c>
       <c r="K252" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L252" s="7"/>
     </row>
@@ -8326,13 +8326,13 @@
       </c>
       <c r="F254" s="3"/>
       <c r="I254" s="24" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="J254" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K254" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="L254" s="7"/>
     </row>
@@ -8355,10 +8355,10 @@
         <v>125</v>
       </c>
       <c r="J255" s="12" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K255" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="L255" s="7"/>
     </row>
@@ -8378,7 +8378,7 @@
       <c r="I256" s="18"/>
       <c r="J256" s="18"/>
       <c r="K256" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="L256" s="7"/>
     </row>
@@ -8402,7 +8402,7 @@
         <v>267</v>
       </c>
       <c r="K257" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="L257" s="7"/>
     </row>
@@ -8427,7 +8427,7 @@
         <v>255</v>
       </c>
       <c r="K258" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L258" s="7"/>
     </row>
@@ -8444,7 +8444,7 @@
       </c>
       <c r="F259" s="3"/>
       <c r="K259" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="L259" s="7"/>
     </row>
@@ -8458,7 +8458,7 @@
         <v>262</v>
       </c>
       <c r="K260" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="L260" s="7"/>
     </row>
@@ -8481,7 +8481,7 @@
         <v>264</v>
       </c>
       <c r="K261" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L261" s="7"/>
     </row>
@@ -8500,13 +8500,13 @@
         <v>24</v>
       </c>
       <c r="I262" s="24" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="J262" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K262" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L262" s="7"/>
     </row>
@@ -8539,13 +8539,13 @@
       </c>
       <c r="F264" s="3"/>
       <c r="I264" s="24" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="J264" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K264" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="L264" s="7"/>
     </row>
@@ -8571,7 +8571,7 @@
         <v>269</v>
       </c>
       <c r="K265" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="L265" s="7"/>
     </row>
@@ -8591,7 +8591,7 @@
       <c r="I266" s="18"/>
       <c r="J266" s="18"/>
       <c r="K266" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="L266" s="7"/>
     </row>
@@ -8615,7 +8615,7 @@
         <v>267</v>
       </c>
       <c r="K267" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="L267" s="7"/>
     </row>
@@ -8640,7 +8640,7 @@
         <v>255</v>
       </c>
       <c r="K268" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="L268" s="7"/>
     </row>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="F269" s="3"/>
       <c r="K269" s="7" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="L269" s="7"/>
     </row>
@@ -8671,7 +8671,7 @@
         <v>262</v>
       </c>
       <c r="K270" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="L270" s="7"/>
     </row>
@@ -8694,7 +8694,7 @@
         <v>264</v>
       </c>
       <c r="K271" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="L271" s="7"/>
     </row>
@@ -8713,13 +8713,13 @@
         <v>24</v>
       </c>
       <c r="I272" s="24" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="J272" s="12" t="s">
         <v>255</v>
       </c>
       <c r="K272" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L272" s="7"/>
     </row>
@@ -8778,7 +8778,7 @@
         <v>269</v>
       </c>
       <c r="K275" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="L275" s="7"/>
     </row>
@@ -8798,13 +8798,13 @@
         <v>44</v>
       </c>
       <c r="I276" s="25" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="J276" s="17" t="s">
         <v>269</v>
       </c>
       <c r="K276" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L276" s="7"/>
     </row>
@@ -8824,7 +8824,7 @@
       <c r="I277" s="17"/>
       <c r="J277" s="17"/>
       <c r="K277" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L277" s="7"/>
     </row>
@@ -8848,7 +8848,7 @@
         <v>274</v>
       </c>
       <c r="K278" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L278" s="7"/>
     </row>
@@ -8872,7 +8872,7 @@
         <v>255</v>
       </c>
       <c r="K279" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="L279" s="7"/>
     </row>
@@ -8896,7 +8896,7 @@
         <v>255</v>
       </c>
       <c r="K280" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="L280" s="7"/>
     </row>
@@ -8920,7 +8920,7 @@
         <v>255</v>
       </c>
       <c r="K281" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="L281" s="7"/>
     </row>
@@ -8944,7 +8944,7 @@
         <v>255</v>
       </c>
       <c r="K282" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="L282" s="7"/>
     </row>
@@ -8968,7 +8968,7 @@
         <v>255</v>
       </c>
       <c r="K283" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="L283" s="7"/>
     </row>
@@ -8992,7 +8992,7 @@
         <v>255</v>
       </c>
       <c r="K284" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="L284" s="7"/>
     </row>
@@ -9033,7 +9033,7 @@
         <v>255</v>
       </c>
       <c r="K286" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="L286" s="7"/>
     </row>
@@ -9084,13 +9084,13 @@
         <v>59</v>
       </c>
       <c r="I289" s="24" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="J289" s="12" t="s">
         <v>269</v>
       </c>
       <c r="K289" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="L289" s="7"/>
     </row>
@@ -9114,7 +9114,7 @@
         <v>271</v>
       </c>
       <c r="K290" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="L290" s="7"/>
     </row>
@@ -9132,13 +9132,13 @@
       </c>
       <c r="F291" s="3"/>
       <c r="I291" s="22" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="J291" s="16" t="s">
         <v>255</v>
       </c>
       <c r="K291" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="L291" s="7"/>
     </row>
@@ -9162,7 +9162,7 @@
         <v>255</v>
       </c>
       <c r="K292" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="L292" s="7"/>
     </row>
@@ -9180,13 +9180,13 @@
       </c>
       <c r="F293" s="3"/>
       <c r="I293" s="26" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="J293" s="13" t="s">
         <v>255</v>
       </c>
       <c r="K293" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="L293" s="7"/>
     </row>
@@ -9210,7 +9210,7 @@
         <v>255</v>
       </c>
       <c r="K294" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="L294" s="7"/>
     </row>
@@ -9234,7 +9234,7 @@
         <v>255</v>
       </c>
       <c r="K295" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="L295" s="7"/>
     </row>
@@ -9258,7 +9258,7 @@
         <v>255</v>
       </c>
       <c r="K296" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="L296" s="7"/>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="J297" s="12"/>
       <c r="K297" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="L297" s="7"/>
     </row>
